--- a/varselect/simulations/simulation29.result.xlsx
+++ b/varselect/simulations/simulation29.result.xlsx
@@ -399,91 +399,91 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.012</v>
+        <v>0.076</v>
       </c>
       <c r="D2">
-        <v>0.006</v>
+        <v>0.038</v>
       </c>
       <c r="G2">
-        <v>0.109</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.006</v>
+        <v>0.091</v>
       </c>
       <c r="C3">
-        <v>0.013</v>
+        <v>0.11</v>
       </c>
       <c r="D3">
-        <v>0.031</v>
+        <v>0.459</v>
       </c>
       <c r="G3">
-        <v>0.109</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.003</v>
+        <v>0.052</v>
       </c>
       <c r="C4">
-        <v>0.013</v>
+        <v>0.096</v>
       </c>
       <c r="D4">
-        <v>0.022</v>
+        <v>0.289</v>
       </c>
       <c r="G4">
-        <v>0.06800000000000001</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="C5">
-        <v>0.013</v>
+        <v>0.081</v>
       </c>
       <c r="D5">
-        <v>0.008999999999999999</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C6">
-        <v>0.013</v>
+        <v>0.079</v>
       </c>
       <c r="D6">
-        <v>0.008</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C7">
-        <v>0.013</v>
+        <v>0.107</v>
       </c>
       <c r="D7">
-        <v>0.007</v>
+        <v>0.065</v>
       </c>
       <c r="G7">
-        <v>0.167</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="C8">
-        <v>0.013</v>
+        <v>0.116</v>
       </c>
       <c r="D8">
-        <v>0.008999999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="G8">
-        <v>0.167</v>
+        <v>0.401</v>
       </c>
     </row>
   </sheetData>
